--- a/data/trans_dic/P43B_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P43B_R-Dificultad-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8940674861006525</v>
+        <v>0.8937500439045408</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9069368487925119</v>
+        <v>0.9078382147987303</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8875394990949936</v>
+        <v>0.8915950093881407</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9428560476112908</v>
+        <v>0.9432225263224904</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9516940511120633</v>
+        <v>0.9513416402879032</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9468321410166355</v>
+        <v>0.9489221699828879</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>0.8958711594958566</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9023361617903108</v>
+        <v>0.902336161790311</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8004170313175722</v>
+        <v>0.798920501494688</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8658541602270512</v>
+        <v>0.8644320416909377</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8757501659439018</v>
+        <v>0.8733678264734132</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8683739319877586</v>
+        <v>0.8731190179152404</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.922973092744514</v>
+        <v>0.9218278352121723</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.924077104711458</v>
+        <v>0.9250510959210739</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8149512436168855</v>
+        <v>0.8206866722169811</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8139575824628663</v>
+        <v>0.807953684571054</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.772327407518577</v>
+        <v>0.7701660818204089</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8882853924720027</v>
+        <v>0.8940767374670652</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8858315990430791</v>
+        <v>0.886621555365253</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8370888774546804</v>
+        <v>0.8336974300394995</v>
       </c>
     </row>
     <row r="13">
@@ -755,7 +755,7 @@
         <v>0.7382661811756132</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6771512551010819</v>
+        <v>0.6771512551010818</v>
       </c>
     </row>
     <row r="14">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6821603399388469</v>
+        <v>0.682502847113444</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6752770206034741</v>
+        <v>0.6746168648443013</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6390154029234475</v>
+        <v>0.6360249874558944</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8049399753481715</v>
+        <v>0.8088618814293753</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7970252579092753</v>
+        <v>0.8000698543960195</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7133863754195414</v>
+        <v>0.7122101870120841</v>
       </c>
     </row>
     <row r="16">
@@ -810,7 +810,7 @@
         <v>0.8768364855503854</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8147222880353227</v>
+        <v>0.8147222880353225</v>
       </c>
     </row>
     <row r="17">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.836006899189642</v>
+        <v>0.8376595968742373</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8594821004134626</v>
+        <v>0.858755954933634</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7983696165425574</v>
+        <v>0.7975115777734503</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8735460953192724</v>
+        <v>0.8735889561133847</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8925900377349711</v>
+        <v>0.8933867504463977</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8321749258335307</v>
+        <v>0.8309112460664266</v>
       </c>
     </row>
     <row r="19">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>450000</v>
+        <v>449840</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>521374</v>
+        <v>521892</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>211185</v>
+        <v>212150</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>474556</v>
+        <v>474741</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>547103</v>
+        <v>546901</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>225293</v>
+        <v>225790</v>
       </c>
     </row>
     <row r="8">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>396727</v>
+        <v>395985</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>433537</v>
+        <v>432825</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>356568</v>
+        <v>355598</v>
       </c>
     </row>
     <row r="11">
@@ -1068,13 +1068,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>430410</v>
+        <v>432761</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>462136</v>
+        <v>461563</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>376244</v>
+        <v>376641</v>
       </c>
     </row>
     <row r="12">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>331553</v>
+        <v>333887</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>303066</v>
+        <v>300830</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>297796</v>
+        <v>296962</v>
       </c>
     </row>
     <row r="15">
@@ -1140,13 +1140,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>361388</v>
+        <v>363744</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>329827</v>
+        <v>330121</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>322766</v>
+        <v>321459</v>
       </c>
     </row>
     <row r="16">
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>149461</v>
+        <v>149536</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>158723</v>
+        <v>158568</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>268158</v>
+        <v>266903</v>
       </c>
     </row>
     <row r="19">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>176362</v>
+        <v>177222</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>187340</v>
+        <v>188056</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>299368</v>
+        <v>298874</v>
       </c>
     </row>
     <row r="20">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1358432</v>
+        <v>1361117</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1446475</v>
+        <v>1445253</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1157896</v>
+        <v>1156652</v>
       </c>
     </row>
     <row r="23">
@@ -1284,13 +1284,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1419429</v>
+        <v>1419499</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1502194</v>
+        <v>1503535</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1206925</v>
+        <v>1205092</v>
       </c>
     </row>
     <row r="24">
